--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216007.8231825753</v>
+        <v>217096.9898191472</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18918821.64322885</v>
+        <v>19087887.38355839</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9446554.900257198</v>
+        <v>9612256.232354164</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5511434.992529069</v>
+        <v>5431632.330965839</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>295.263893285047</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3.946226624324415</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -817,22 +819,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>68.83205621563042</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>236.2449788946802</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>272.9548798246049</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>252.8252773014387</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>139.5948540288041</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>219.4183652254764</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>106.3192265349073</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>129.3180831409776</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>75.78440415150435</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1306,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>34.79484432979901</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>71.88057184315684</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1430,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>248.2491686467715</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>68.83205621562998</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>88.66266823451896</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>209.7362531691279</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>111.5422858787866</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1771,13 +1773,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>72.66868781507388</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>65.7695357349571</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1844,22 +1846,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>15.40312238724408</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>58.67748875058447</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>33.46701689716789</v>
       </c>
       <c r="T19" t="n">
-        <v>139.4851730221162</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2084,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>85.30974715477875</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>24.1295862066214</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>103.8121020651554</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>297.9489954478892</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>247.6684388475993</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2533,16 +2535,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>164.7047943182444</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2557,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>178.0332978264173</v>
       </c>
       <c r="V26" t="n">
-        <v>119.0131614123048</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2719,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>96.44420510686372</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686383</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2795,13 +2797,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>58.67748875058538</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>264.5256984474105</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2953,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686383</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3007,10 +3009,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>15.96946234244685</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -3038,7 +3040,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>78.26653139842087</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>86.31361320310437</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3190,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>260.4446813871647</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>58.67748875058555</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>233.7374369868088</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>98.2633455906813</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>218.7757544134941</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>12.96078451680977</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3512,16 +3514,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>24.1295862066223</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>218.7757544134941</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>92.01098438110735</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3746,10 +3748,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>92.38090300811142</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>24.1295862066214</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>110.1891282340261</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>25.96348588731389</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3961,10 +3963,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>249.8266573546217</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>82.38632349886963</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4138,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>4.250061189173884</v>
       </c>
       <c r="W46" t="n">
-        <v>25.6762754346822</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>762.0590793011095</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="C2" t="n">
-        <v>335.1583493144096</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="D2" t="n">
-        <v>335.1583493144096</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E2" t="n">
-        <v>335.1583493144096</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F2" t="n">
-        <v>335.1583493144096</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M2" t="n">
-        <v>357.6855680512415</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N2" t="n">
-        <v>814.4714747539724</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="O2" t="n">
         <v>1271.257381456703</v>
@@ -4358,22 +4360,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1841.613535542019</v>
       </c>
       <c r="U2" t="n">
-        <v>1587.244713637749</v>
+        <v>1583.258626138431</v>
       </c>
       <c r="V2" t="n">
-        <v>1587.244713637749</v>
+        <v>1583.258626138431</v>
       </c>
       <c r="W2" t="n">
-        <v>1587.244713637749</v>
+        <v>1583.258626138431</v>
       </c>
       <c r="X2" t="n">
-        <v>1587.244713637749</v>
+        <v>1583.258626138431</v>
       </c>
       <c r="Y2" t="n">
-        <v>1181.90744359264</v>
+        <v>1177.921356093322</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L3" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="M3" t="n">
-        <v>475.2419029331441</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="N3" t="n">
-        <v>932.027809635875</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O3" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q3" t="n">
         <v>1845.599623041337</v>
@@ -4437,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4446,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.4393219715645</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C4" t="n">
-        <v>36.91199246082674</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D4" t="n">
-        <v>36.91199246082674</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E4" t="n">
-        <v>36.91199246082674</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F4" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O4" t="n">
         <v>1555.000411119436</v>
@@ -4513,25 +4515,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T4" t="n">
-        <v>1602.260275267237</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U4" t="n">
-        <v>1322.075826767541</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="V4" t="n">
-        <v>1040.36435937557</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="W4" t="n">
-        <v>765.5119555480831</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="X4" t="n">
-        <v>522.9480589938881</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y4" t="n">
-        <v>296.6052906836302</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.220555060086</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.220555060086</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D5" t="n">
-        <v>1590.220555060086</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E5" t="n">
-        <v>1164.243615207943</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F5" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L5" t="n">
-        <v>856.3013579804531</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M5" t="n">
-        <v>1271.957808655251</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.957808655251</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="W5" t="n">
-        <v>1590.220555060086</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="X5" t="n">
-        <v>1590.220555060086</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="Y5" t="n">
-        <v>1590.220555060086</v>
+        <v>1162.81734308536</v>
       </c>
     </row>
     <row r="6">
@@ -4626,40 +4628,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
-        <v>493.6978991635576</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M6" t="n">
-        <v>950.4838058662885</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N6" t="n">
-        <v>1306.794406253902</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="O6" t="n">
-        <v>1763.580312956633</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P6" t="n">
         <v>1763.580312956633</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.7786697456644</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C7" t="n">
-        <v>208.7737666862663</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D7" t="n">
-        <v>208.7737666862663</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E7" t="n">
-        <v>208.7737666862663</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
         <v>263.4395936666639</v>
@@ -4750,25 +4752,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U7" t="n">
-        <v>1565.415174541641</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="V7" t="n">
-        <v>1283.70370714967</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="W7" t="n">
-        <v>1008.851303322183</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="X7" t="n">
-        <v>766.287406767988</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="Y7" t="n">
-        <v>539.9446384577301</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1020.413988704697</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C8" t="n">
-        <v>593.5132587179971</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D8" t="n">
-        <v>593.5132587179971</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E8" t="n">
-        <v>167.5363188658547</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F8" t="n">
-        <v>167.5363188658547</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N8" t="n">
-        <v>856.3013579804531</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.957808655251</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="P8" t="n">
         <v>1271.957808655251</v>
@@ -4847,7 +4849,7 @@
         <v>1845.599623041337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1440.262352996227</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="9">
@@ -4863,46 +4865,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K9" t="n">
-        <v>475.2419029331439</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="L9" t="n">
-        <v>932.0278096358747</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="M9" t="n">
-        <v>932.0278096358747</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N9" t="n">
-        <v>932.0278096358747</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4936,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.6745856373313</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="C10" t="n">
-        <v>739.7020225162473</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="D10" t="n">
-        <v>576.385249643018</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="E10" t="n">
-        <v>410.1770437958716</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F10" t="n">
-        <v>238.315269570432</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G10" t="n">
-        <v>72.05829986466412</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P10" t="n">
         <v>1845.599623041337</v>
@@ -4987,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.74721921385</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X10" t="n">
-        <v>1328.183322659655</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.840554349397</v>
+        <v>595.3769080672175</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>760.7573108389344</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="C11" t="n">
-        <v>760.7573108389344</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="D11" t="n">
-        <v>760.7573108389344</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E11" t="n">
         <v>334.7803709867919</v>
@@ -5033,28 +5035,28 @@
         <v>334.7803709867919</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K11" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L11" t="n">
-        <v>932.027809635875</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M11" t="n">
-        <v>932.027809635875</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N11" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="O11" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P11" t="n">
         <v>1845.599623041337</v>
@@ -5069,22 +5071,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T11" t="n">
-        <v>1772.992984815926</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U11" t="n">
-        <v>1514.638075412338</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V11" t="n">
-        <v>1157.148660538588</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W11" t="n">
-        <v>760.7573108389344</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="X11" t="n">
-        <v>760.7573108389344</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="Y11" t="n">
-        <v>760.7573108389344</v>
+        <v>758.0729918017917</v>
       </c>
     </row>
     <row r="12">
@@ -5100,40 +5102,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L12" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M12" t="n">
-        <v>493.6978991635576</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N12" t="n">
-        <v>950.4838058662885</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O12" t="n">
-        <v>1407.269712569019</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P12" t="n">
         <v>1845.599623041337</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.4702432027651</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="C13" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D13" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E13" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F13" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
         <v>76.20565529896515</v>
@@ -5224,25 +5226,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S13" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.125227786372</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.940779286676</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V13" t="n">
-        <v>870.229311894705</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W13" t="n">
-        <v>595.376908067218</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X13" t="n">
-        <v>352.8130115130231</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.4702432027651</v>
+        <v>296.6052906836297</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1313.082283114669</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="C14" t="n">
-        <v>886.181553127969</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="D14" t="n">
-        <v>462.8889323129692</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E14" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L14" t="n">
-        <v>493.6978991635576</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M14" t="n">
-        <v>950.4838058662885</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="N14" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O14" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P14" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q14" t="n">
         <v>1845.599623041337</v>
@@ -5306,22 +5308,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1154.464341501445</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="X14" t="n">
-        <v>1732.930647406199</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="Y14" t="n">
-        <v>1732.930647406199</v>
+        <v>758.0729918017917</v>
       </c>
     </row>
     <row r="15">
@@ -5337,43 +5339,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L15" t="n">
-        <v>475.2419029331439</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M15" t="n">
-        <v>932.0278096358747</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N15" t="n">
-        <v>1388.813716338606</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O15" t="n">
-        <v>1845.599623041337</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="P15" t="n">
-        <v>1845.599623041337</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="Q15" t="n">
         <v>1845.599623041337</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.7661652067097</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C16" t="n">
-        <v>443.7936020856257</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D16" t="n">
-        <v>280.4768292123964</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E16" t="n">
-        <v>280.4768292123964</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F16" t="n">
-        <v>280.4768292123964</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G16" t="n">
         <v>280.4768292123964</v>
@@ -5431,55 +5433,55 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6013137552475</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M16" t="n">
-        <v>782.7871087254983</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N16" t="n">
-        <v>1160.278619601534</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O16" t="n">
-        <v>1515.706748281297</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P16" t="n">
-        <v>1806.305960203198</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1555.023247282924</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U16" t="n">
-        <v>1274.838798783228</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V16" t="n">
-        <v>1274.838798783228</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W16" t="n">
-        <v>1274.838798783228</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X16" t="n">
-        <v>1032.274902229033</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y16" t="n">
-        <v>805.9321339187754</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>350.3390804688567</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C17" t="n">
-        <v>350.3390804688567</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D17" t="n">
-        <v>350.3390804688567</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E17" t="n">
-        <v>334.7803709867919</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F17" t="n">
-        <v>334.7803709867919</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G17" t="n">
-        <v>334.7803709867919</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K17" t="n">
-        <v>493.6978991635576</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L17" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M17" t="n">
-        <v>950.4838058662885</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N17" t="n">
-        <v>1389.514143537154</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O17" t="n">
-        <v>1389.514143537154</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P17" t="n">
-        <v>1389.514143537154</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U17" t="n">
-        <v>1587.244713637749</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V17" t="n">
-        <v>1587.244713637749</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W17" t="n">
-        <v>1587.244713637749</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X17" t="n">
-        <v>1175.524714805496</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y17" t="n">
-        <v>770.1874447603867</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.0354834922822</v>
+        <v>983.3471129133208</v>
       </c>
       <c r="C18" t="n">
-        <v>486.529580009787</v>
+        <v>865.8412094308255</v>
       </c>
       <c r="D18" t="n">
-        <v>382.689621525072</v>
+        <v>762.0012509461105</v>
       </c>
       <c r="E18" t="n">
-        <v>277.9876877980092</v>
+        <v>657.2993172190478</v>
       </c>
       <c r="F18" t="n">
-        <v>184.3418574809133</v>
+        <v>563.653486901952</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851735</v>
+        <v>469.599715119556</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082694</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="I18" t="n">
-        <v>44.35863542273878</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="J18" t="n">
-        <v>44.35863542273878</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="K18" t="n">
-        <v>475.2419029331441</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="L18" t="n">
-        <v>932.027809635875</v>
+        <v>659.4347056307204</v>
       </c>
       <c r="M18" t="n">
-        <v>1388.813716338606</v>
+        <v>1210.100240615158</v>
       </c>
       <c r="N18" t="n">
-        <v>1388.813716338606</v>
+        <v>1760.765775599596</v>
       </c>
       <c r="O18" t="n">
-        <v>1388.813716338606</v>
+        <v>1760.765775599596</v>
       </c>
       <c r="P18" t="n">
-        <v>1388.813716338606</v>
+        <v>1760.765775599596</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R18" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S18" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.58700502363</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.39543990027</v>
+        <v>2001.707069321308</v>
       </c>
       <c r="U18" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240945</v>
       </c>
       <c r="V18" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380211</v>
       </c>
       <c r="W18" t="n">
-        <v>1036.13272779239</v>
+        <v>1415.444357213428</v>
       </c>
       <c r="X18" t="n">
-        <v>872.6553815590526</v>
+        <v>1251.967010980091</v>
       </c>
       <c r="Y18" t="n">
-        <v>732.9624929123449</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.8845555819107</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C19" t="n">
-        <v>36.91199246082674</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D19" t="n">
-        <v>36.91199246082674</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E19" t="n">
-        <v>36.91199246082674</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F19" t="n">
-        <v>36.91199246082674</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K19" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L19" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N19" t="n">
-        <v>1428.000280878674</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O19" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P19" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q19" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>2144.067571576652</v>
       </c>
       <c r="T19" t="n">
-        <v>1704.705508877583</v>
+        <v>1900.728223802552</v>
       </c>
       <c r="U19" t="n">
-        <v>1424.521060377887</v>
+        <v>1620.543775302856</v>
       </c>
       <c r="V19" t="n">
-        <v>1142.809592985916</v>
+        <v>1620.543775302856</v>
       </c>
       <c r="W19" t="n">
-        <v>867.9571891584293</v>
+        <v>1620.543775302856</v>
       </c>
       <c r="X19" t="n">
-        <v>625.3932926042344</v>
+        <v>1377.979878748662</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.0505242939764</v>
+        <v>1151.637110438404</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1322.50007669869</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C20" t="n">
-        <v>895.5993467119897</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D20" t="n">
-        <v>895.5993467119897</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E20" t="n">
-        <v>469.6224068598473</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
         <v>407.101683866143</v>
@@ -5756,46 +5758,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="L20" t="n">
-        <v>455.3583126271592</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M20" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N20" t="n">
-        <v>1556.689382596036</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O20" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W20" t="n">
-        <v>1828.519902762723</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X20" t="n">
-        <v>1742.34844099022</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y20" t="n">
-        <v>1742.34844099022</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="21">
@@ -5811,22 +5813,22 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
         <v>316.1957143288386</v>
@@ -5838,13 +5840,13 @@
         <v>316.1957143288386</v>
       </c>
       <c r="M21" t="n">
-        <v>866.8612493132769</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N21" t="n">
-        <v>866.8612493132769</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O21" t="n">
-        <v>1307.021068682275</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="P21" t="n">
         <v>1307.021068682275</v>
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>315.615903911738</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>315.615903911738</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>315.615903911738</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>315.615903911738</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>149.3589342059702</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M22" t="n">
         <v>1074.392270743914</v>
@@ -5935,25 +5937,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U22" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V22" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W22" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X22" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2187.043752385067</v>
+        <v>1082.561118502787</v>
       </c>
       <c r="C23" t="n">
-        <v>1760.143022398368</v>
+        <v>1082.561118502787</v>
       </c>
       <c r="D23" t="n">
-        <v>1336.850401583368</v>
+        <v>1082.561118502787</v>
       </c>
       <c r="E23" t="n">
-        <v>910.8734617312255</v>
+        <v>1082.561118502787</v>
       </c>
       <c r="F23" t="n">
-        <v>485.7492799206257</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G23" t="n">
-        <v>81.41021751007428</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H23" t="n">
-        <v>81.41021751007428</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K23" t="n">
-        <v>796.9185254855734</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L23" t="n">
-        <v>1726.54357310485</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M23" t="n">
-        <v>2730.829674523909</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N23" t="n">
-        <v>2730.829674523909</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O23" t="n">
-        <v>3575.974324674721</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>4070.510875503714</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T23" t="n">
-        <v>4070.510875503714</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U23" t="n">
-        <v>4070.510875503714</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.340735253613</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="W23" t="n">
-        <v>3423.94938555396</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="X23" t="n">
-        <v>3012.229386721707</v>
+        <v>1487.898388547897</v>
       </c>
       <c r="Y23" t="n">
-        <v>2606.892116676598</v>
+        <v>1082.561118502787</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.5337085415294</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>531.0278050590342</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>427.1878465743193</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E24" t="n">
-        <v>322.4859128472565</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F24" t="n">
-        <v>228.8400825301607</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>134.7863107477647</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J24" t="n">
-        <v>81.41021751007428</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K24" t="n">
-        <v>81.41021751007428</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L24" t="n">
-        <v>81.41021751007428</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M24" t="n">
-        <v>882.6464064034149</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N24" t="n">
-        <v>1890.097848090584</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O24" t="n">
-        <v>1890.097848090584</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P24" t="n">
-        <v>1890.097848090584</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q24" t="n">
-        <v>1890.097848090584</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R24" t="n">
-        <v>1890.097848090584</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>1808.773600651838</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>1666.893664949517</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1482.125468869153</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1277.15233000842</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1080.630952841637</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>917.1536066082998</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>777.4607179615922</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>425.2445548565978</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C25" t="n">
-        <v>253.2719917355138</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D25" t="n">
-        <v>253.2719917355138</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E25" t="n">
-        <v>253.2719917355138</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F25" t="n">
-        <v>81.41021751007428</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G25" t="n">
-        <v>81.41021751007428</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H25" t="n">
-        <v>81.41021751007428</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I25" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9015457342323</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>365.4291469400695</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>720.1184682344903</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>1111.304263204741</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
-        <v>1488.795774080777</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>1844.22390276054</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>2134.823114682441</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>2261.823244923203</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2261.823244923203</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S25" t="n">
-        <v>2164.40485592637</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T25" t="n">
-        <v>1921.06550815227</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U25" t="n">
-        <v>1640.881059652574</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V25" t="n">
-        <v>1359.169592260603</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="W25" t="n">
-        <v>1084.317188433116</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="X25" t="n">
-        <v>841.7532918789213</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="Y25" t="n">
-        <v>615.4105235686634</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>471.3989550359474</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="C26" t="n">
-        <v>44.49822504924753</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="D26" t="n">
-        <v>44.49822504924753</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E26" t="n">
-        <v>44.49822504924753</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>667.4947029893171</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L26" t="n">
-        <v>667.4947029893171</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M26" t="n">
-        <v>667.4947029893171</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N26" t="n">
-        <v>667.4947029893171</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="O26" t="n">
-        <v>1218.160237973755</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P26" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462377</v>
+        <v>1719.786773414071</v>
       </c>
       <c r="V26" t="n">
-        <v>2104.695937904493</v>
+        <v>1719.786773414071</v>
       </c>
       <c r="W26" t="n">
-        <v>1708.30458820484</v>
+        <v>1719.786773414071</v>
       </c>
       <c r="X26" t="n">
-        <v>1296.584589372587</v>
+        <v>1719.786773414071</v>
       </c>
       <c r="Y26" t="n">
-        <v>891.2473193274775</v>
+        <v>1719.786773414071</v>
       </c>
     </row>
     <row r="27">
@@ -6285,46 +6287,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K27" t="n">
-        <v>205.6899987133984</v>
+        <v>838.37484378254</v>
       </c>
       <c r="L27" t="n">
-        <v>756.3555336978366</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.021068682275</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.021068682275</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O27" t="n">
-        <v>1307.021068682275</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P27" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q27" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>388.3325623957711</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C28" t="n">
-        <v>216.3599992746871</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D28" t="n">
-        <v>216.3599992746871</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E28" t="n">
         <v>216.3599992746871</v>
       </c>
       <c r="F28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6409,25 +6411,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.492863465543</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>1884.153515691443</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U28" t="n">
-        <v>1603.969067191748</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V28" t="n">
-        <v>1322.257599799776</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W28" t="n">
-        <v>1047.405195972289</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X28" t="n">
-        <v>804.8412994180946</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y28" t="n">
-        <v>578.4985311078367</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1745.792697513689</v>
+        <v>471.3989550359474</v>
       </c>
       <c r="C29" t="n">
-        <v>1318.891967526989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D29" t="n">
-        <v>895.5993467119897</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E29" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K29" t="n">
-        <v>116.829168004879</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L29" t="n">
-        <v>667.4947029893171</v>
+        <v>455.358312627159</v>
       </c>
       <c r="M29" t="n">
-        <v>667.4947029893171</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N29" t="n">
-        <v>667.4947029893171</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O29" t="n">
-        <v>1218.160237973755</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P29" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U29" t="n">
-        <v>2165.64106180522</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V29" t="n">
-        <v>2165.64106180522</v>
+        <v>1699.358667859383</v>
       </c>
       <c r="W29" t="n">
-        <v>2165.64106180522</v>
+        <v>1302.96731815973</v>
       </c>
       <c r="X29" t="n">
-        <v>2165.64106180522</v>
+        <v>891.2473193274775</v>
       </c>
       <c r="Y29" t="n">
-        <v>2165.64106180522</v>
+        <v>891.2473193274775</v>
       </c>
     </row>
     <row r="30">
@@ -6522,40 +6524,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J30" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L30" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="M30" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="N30" t="n">
-        <v>866.8612493132769</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O30" t="n">
-        <v>866.8612493132769</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P30" t="n">
         <v>1307.021068682275</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>388.3325623957711</v>
+        <v>856.0490050883208</v>
       </c>
       <c r="C31" t="n">
-        <v>216.3599992746871</v>
+        <v>684.0764419672367</v>
       </c>
       <c r="D31" t="n">
-        <v>216.3599992746871</v>
+        <v>520.7596690940074</v>
       </c>
       <c r="E31" t="n">
-        <v>216.3599992746871</v>
+        <v>354.551463246861</v>
       </c>
       <c r="F31" t="n">
-        <v>44.49822504924753</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924753</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6646,25 +6648,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.492863465543</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T31" t="n">
-        <v>1884.153515691443</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U31" t="n">
-        <v>1603.969067191748</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.257599799776</v>
+        <v>1515.121638664839</v>
       </c>
       <c r="W31" t="n">
-        <v>1047.405195972289</v>
+        <v>1515.121638664839</v>
       </c>
       <c r="X31" t="n">
-        <v>804.8412994180946</v>
+        <v>1272.557742110644</v>
       </c>
       <c r="Y31" t="n">
-        <v>578.4985311078367</v>
+        <v>1046.214973800386</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1399.725618125737</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C32" t="n">
-        <v>972.8248881390371</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D32" t="n">
-        <v>549.5322673240373</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E32" t="n">
-        <v>123.5553274718949</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L32" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M32" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N32" t="n">
-        <v>1696.494830002562</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O32" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462377</v>
+        <v>2137.725784580452</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462377</v>
+        <v>2137.725784580452</v>
       </c>
       <c r="X32" t="n">
-        <v>2224.911252462377</v>
+        <v>1726.005785748199</v>
       </c>
       <c r="Y32" t="n">
-        <v>1819.573982417267</v>
+        <v>1320.668515703089</v>
       </c>
     </row>
     <row r="33">
@@ -6759,37 +6761,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L33" t="n">
-        <v>201.1892506764427</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M33" t="n">
-        <v>751.8547856608809</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N33" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O33" t="n">
         <v>1853.185855629757</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1027.91077931376</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C34" t="n">
-        <v>855.9382161926764</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D34" t="n">
-        <v>692.6214433194471</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E34" t="n">
-        <v>526.4132374723006</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F34" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G34" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K34" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L34" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P34" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462377</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V34" t="n">
-        <v>1961.835816717766</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W34" t="n">
-        <v>1686.983412890279</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X34" t="n">
-        <v>1444.419516336084</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y34" t="n">
-        <v>1218.076748025826</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1805.062888170846</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C35" t="n">
-        <v>1378.162158184147</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D35" t="n">
-        <v>954.8695373691469</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E35" t="n">
-        <v>528.8925975170044</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F35" t="n">
-        <v>103.7684157064047</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L35" t="n">
-        <v>572.914647509062</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M35" t="n">
-        <v>1123.5801824935</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N35" t="n">
-        <v>1674.245717477938</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O35" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103421</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X35" t="n">
-        <v>2224.911252462377</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="Y35" t="n">
-        <v>2224.911252462377</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="36">
@@ -6996,40 +6998,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M36" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N36" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="O36" t="n">
-        <v>1696.494830002562</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P36" t="n">
         <v>1853.185855629757</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>315.6159039117389</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C37" t="n">
-        <v>216.3599992746871</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D37" t="n">
-        <v>216.3599992746871</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E37" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F37" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G37" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H37" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S37" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T37" t="n">
-        <v>1811.436857207411</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="U37" t="n">
-        <v>1531.252408707716</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="V37" t="n">
-        <v>1249.540941315744</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="W37" t="n">
-        <v>974.6885374882575</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X37" t="n">
-        <v>732.1246409340625</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y37" t="n">
-        <v>505.7818726238046</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1780.689568770218</v>
+        <v>1595.975226652906</v>
       </c>
       <c r="C38" t="n">
-        <v>1353.788838783518</v>
+        <v>1595.975226652906</v>
       </c>
       <c r="D38" t="n">
-        <v>930.4962179685185</v>
+        <v>1172.682605837907</v>
       </c>
       <c r="E38" t="n">
-        <v>504.5192781163761</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F38" t="n">
-        <v>79.39509630577632</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G38" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H38" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924753</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="L38" t="n">
-        <v>572.914647509062</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="M38" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="N38" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O38" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U38" t="n">
-        <v>2200.537933061748</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V38" t="n">
-        <v>2200.537933061748</v>
+        <v>1609.066928185037</v>
       </c>
       <c r="W38" t="n">
-        <v>2200.537933061748</v>
+        <v>1609.066928185037</v>
       </c>
       <c r="X38" t="n">
-        <v>2200.537933061748</v>
+        <v>1609.066928185037</v>
       </c>
       <c r="Y38" t="n">
-        <v>2200.537933061748</v>
+        <v>1609.066928185037</v>
       </c>
     </row>
     <row r="39">
@@ -7233,31 +7235,31 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K39" t="n">
-        <v>595.1637600336857</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="L39" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="M39" t="n">
         <v>1302.520320645319</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7354,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T40" t="n">
-        <v>1786.751981150003</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U40" t="n">
-        <v>1786.751981150003</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="V40" t="n">
-        <v>1786.751981150003</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W40" t="n">
-        <v>1786.751981150003</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.188084595808</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>894.6915758509472</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C41" t="n">
-        <v>467.7908458642473</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D41" t="n">
-        <v>44.49822504924753</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E41" t="n">
-        <v>44.49822504924753</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L41" t="n">
-        <v>44.49822504924753</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="M41" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N41" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O41" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P41" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W41" t="n">
-        <v>2131.59720901984</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X41" t="n">
-        <v>1719.877210187587</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="Y41" t="n">
-        <v>1314.539940142477</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="42">
@@ -7470,46 +7472,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L42" t="n">
-        <v>595.1637600336857</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M42" t="n">
-        <v>1145.829295018124</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N42" t="n">
-        <v>1696.494830002562</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>479.5561293032848</v>
+        <v>737.4839554633641</v>
       </c>
       <c r="C43" t="n">
-        <v>307.5835661822009</v>
+        <v>737.4839554633641</v>
       </c>
       <c r="D43" t="n">
-        <v>144.2667933089716</v>
+        <v>737.4839554633641</v>
       </c>
       <c r="E43" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F43" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G43" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H43" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7591,28 +7593,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.685509141857</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S43" t="n">
-        <v>2028.550461660991</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T43" t="n">
-        <v>1785.211113886892</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U43" t="n">
-        <v>1505.026665387196</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V43" t="n">
-        <v>1223.315197995225</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W43" t="n">
-        <v>948.4627941677377</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X43" t="n">
-        <v>705.8988976135428</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y43" t="n">
-        <v>479.5561293032848</v>
+        <v>927.6499241754298</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1014.031259917554</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C44" t="n">
-        <v>587.1305299308542</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D44" t="n">
-        <v>587.1305299308542</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E44" t="n">
-        <v>334.7803709867919</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F44" t="n">
-        <v>334.7803709867919</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G44" t="n">
-        <v>334.7803709867919</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K44" t="n">
-        <v>475.2419029331441</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L44" t="n">
-        <v>475.2419029331441</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="M44" t="n">
-        <v>932.027809635875</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N44" t="n">
-        <v>1388.813716338606</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O44" t="n">
-        <v>1845.599623041337</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P44" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q44" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T44" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V44" t="n">
-        <v>1845.599623041337</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W44" t="n">
-        <v>1845.599623041337</v>
+        <v>887.3827134031583</v>
       </c>
       <c r="X44" t="n">
-        <v>1433.879624209084</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="Y44" t="n">
-        <v>1433.879624209084</v>
+        <v>804.1642048184415</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J45" t="n">
-        <v>44.35863542273854</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K45" t="n">
-        <v>44.35863542273854</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L45" t="n">
-        <v>475.2419029331441</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M45" t="n">
-        <v>932.027809635875</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N45" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O45" t="n">
-        <v>1845.599623041337</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P45" t="n">
-        <v>1845.599623041337</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>380.7463298073503</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C46" t="n">
-        <v>208.7737666862663</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7737666862663</v>
+        <v>210.7064308963939</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7737666862663</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="F46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J46" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>449.0926419794055</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>840.2784369496563</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N46" t="n">
-        <v>1217.769947825692</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S46" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T46" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U46" t="n">
-        <v>1104.902165973849</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V46" t="n">
-        <v>823.1906985818782</v>
+        <v>1479.920804294713</v>
       </c>
       <c r="W46" t="n">
-        <v>797.255066829674</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X46" t="n">
-        <v>797.255066829674</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y46" t="n">
-        <v>570.912298519416</v>
+        <v>736.161735602773</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4449756170225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>361.2933355520366</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8064,19 +8066,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>465.8542658379011</v>
+        <v>458.3324042602125</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O3" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8149,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>134.3202603144915</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>478.5220861203826</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M5" t="n">
-        <v>457.2862635810462</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>381.2527255747679</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>99.7167686251434</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8389,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7901678844537</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q7" t="n">
         <v>24.61956276478495</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O8" t="n">
-        <v>457.2459600376384</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>362.2965767485775</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>465.1567191589062</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>375.4846162958658</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8611,7 +8613,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8626,7 +8628,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q10" t="n">
         <v>24.61956276478495</v>
@@ -8690,22 +8692,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>481.069527758196</v>
+        <v>481.0695277581962</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N11" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P11" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M12" t="n">
-        <v>484.4966862726622</v>
+        <v>465.8542658379013</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O12" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P12" t="n">
-        <v>464.5283265304016</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8848,7 +8850,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8927,16 +8929,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L14" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M14" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N14" t="n">
-        <v>480.7446103807745</v>
+        <v>480.0371081600191</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
@@ -8945,7 +8947,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9009,22 +9011,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>465.2725720398024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O15" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>465.5045236145516</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9085,7 +9087,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9103,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.31013128815742</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9164,25 +9166,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M17" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N17" t="n">
-        <v>480.7446103807745</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>571.1449214366444</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>457.6348575812175</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>483.9149924745637</v>
+        <v>268.1828480767091</v>
       </c>
       <c r="M18" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9261,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9331,10 +9333,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>385.5915703929544</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
@@ -9404,22 +9406,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>87.05611188819479</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660328</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>467.7777678727251</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>466.3767193553318</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
@@ -9556,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>78.7088046951723</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
@@ -9638,22 +9640,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P23" t="n">
-        <v>537.1072313344665</v>
+        <v>571.3293238908516</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9714,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>832.4262642429751</v>
+        <v>463.1564485244924</v>
       </c>
       <c r="N24" t="n">
-        <v>1038.97074708947</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9875,28 +9877,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>298.7878524343791</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>181.7107419310186</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,16 +9953,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>185.2192072314655</v>
+        <v>549.8528999481832</v>
       </c>
       <c r="L27" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9969,13 +9971,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,28 +10114,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>108.8261593358512</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>594.539855548217</v>
+        <v>453.3222319052608</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>578.6270469489275</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10200,13 +10202,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>458.4270447863562</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>466.3767193553316</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660328</v>
       </c>
       <c r="O32" t="n">
-        <v>452.4011488286621</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10431,16 +10433,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>180.7888499740227</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O33" t="n">
-        <v>579.3997028378163</v>
+        <v>181.445652982016</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>572.0660045132436</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>181.854840841818</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,16 +10673,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P36" t="n">
-        <v>180.0446044646217</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>180.0440798263961</v>
       </c>
       <c r="L38" t="n">
-        <v>572.0660045132436</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,16 +10904,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489275</v>
+        <v>180.6729970931272</v>
       </c>
       <c r="L39" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M39" t="n">
-        <v>181.370543772121</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11063,25 +11065,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>572.0660045132433</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N41" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P41" t="n">
-        <v>452.5855512828693</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298237</v>
+        <v>372.2051051843586</v>
       </c>
       <c r="M42" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O42" t="n">
-        <v>181.4456529820153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11160,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>478.5220861203824</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L45" t="n">
-        <v>457.7507104621139</v>
+        <v>467.1209648647327</v>
       </c>
       <c r="M45" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,7 +11457,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11467,13 +11469,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>363.1360191082666</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22547,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22559,10 +22561,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>105.0317785013988</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22598,7 +22600,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>214.7700886214888</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22705,22 +22707,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>101.4207812742427</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22753,22 +22755,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>3.893278693972718</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>142.6950008240098</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22832,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>139.6021589012179</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -22942,22 +22944,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>30.65798346106899</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22990,25 +22992,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>4.66097540167894</v>
       </c>
     </row>
     <row r="8">
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>309.3306541137075</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>270.9775886454682</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23087,7 +23089,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23176,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>88.76171963717063</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23194,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23227,25 +23229,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23261,10 +23263,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23309,7 +23311,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>146.8357434026563</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>144.1782675558851</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>101.4207812742432</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23428,7 +23430,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>75.93173177419122</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23464,7 +23466,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -23510,7 +23512,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23546,19 +23548,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>144.1782675558851</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>296.0605129651436</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23659,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>168.2372664812851</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>206.334344054255</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>406.3140480663769</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23786,7 +23788,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23795,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>342.6064085940741</v>
       </c>
     </row>
     <row r="18">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>134.9666801088886</v>
       </c>
       <c r="T19" t="n">
-        <v>101.4207812742428</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>322.2930516891515</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>377.1543111380371</v>
       </c>
     </row>
     <row r="21">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>38.54620374177172</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>122.9239445446045</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>106.2460818774137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>114.1895583998069</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24443,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>77.73806248313454</v>
       </c>
       <c r="V26" t="n">
-        <v>234.9013593127082</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24607,7 +24609,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181126</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>71.98949189919266</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24683,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
@@ -24734,16 +24736,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>197.0938715589664</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>89.38882227760251</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.98949189919266</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>262.9248903756045</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>342.6064085940729</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
@@ -24974,13 +24976,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>267.6009075219087</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>18.4496713308867</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>341.6181830358603</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25205,22 +25207,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>173.8653618571214</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>71.98949189919185</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>22.1301998828649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>402.6890961318049</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25400,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,10 +25447,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>231.6417741029295</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>22.1301998828649</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>186.883368336944</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25634,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -25646,7 +25648,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>300.0465331945451</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>383.4732126373088</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>54.35699555464892</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.60474129238469</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>171.8905130989993</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>325.2164753450606</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>274.6442915288775</v>
       </c>
       <c r="W46" t="n">
-        <v>246.4276043545299</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>436543.9762967547</v>
+        <v>436543.9762967546</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>436543.9762967547</v>
+        <v>436543.9762967546</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436543.9762967546</v>
+        <v>436543.9762967547</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>436543.9762967547</v>
+        <v>491903.5700175385</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>491903.5700175387</v>
+        <v>491903.5700175385</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>698864.106404647</v>
+        <v>491903.5700175385</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491903.5700175386</v>
+        <v>491903.5700175385</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491903.5700175386</v>
+        <v>491903.5700175385</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>491903.5700175387</v>
+        <v>491903.5700175385</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491903.5700175387</v>
+        <v>491903.5700175385</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>491903.5700175386</v>
+        <v>491903.5700175385</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491903.5700175386</v>
+        <v>491903.5700175385</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>436543.9762967546</v>
+        <v>491903.5700175386</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120279.4957658233</v>
+        <v>120279.4957658232</v>
       </c>
       <c r="C2" t="n">
-        <v>120279.4957658233</v>
+        <v>120279.4957658232</v>
       </c>
       <c r="D2" t="n">
         <v>120279.4957658232</v>
@@ -26326,13 +26328,13 @@
         <v>120279.4957658233</v>
       </c>
       <c r="G2" t="n">
-        <v>120279.4957658233</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="H2" t="n">
+        <v>135529.7532061194</v>
+      </c>
+      <c r="I2" t="n">
         <v>135529.7532061195</v>
-      </c>
-      <c r="I2" t="n">
-        <v>192542.4812222262</v>
       </c>
       <c r="J2" t="n">
         <v>135529.7532061195</v>
@@ -26341,19 +26343,19 @@
         <v>135529.7532061195</v>
       </c>
       <c r="L2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="M2" t="n">
         <v>135529.7532061195</v>
       </c>
       <c r="N2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="O2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="P2" t="n">
-        <v>120279.4957658233</v>
+        <v>135529.7532061195</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>25990.90698746637</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>22820.43073295062</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,34 +26432,34 @@
         <v>31000.78171447197</v>
       </c>
       <c r="G4" t="n">
-        <v>31000.78171447197</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="H4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="I4" t="n">
-        <v>49709.82421989206</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="J4" t="n">
-        <v>34949.10619715251</v>
+        <v>34949.10619715248</v>
       </c>
       <c r="K4" t="n">
-        <v>34949.10619715251</v>
+        <v>34949.10619715248</v>
       </c>
       <c r="L4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="M4" t="n">
-        <v>34949.10619715251</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="N4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="O4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="P4" t="n">
-        <v>31000.78171447197</v>
+        <v>34949.10619715249</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>61871.76530765645</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-127027.7208369975</v>
       </c>
       <c r="C6" t="n">
-        <v>27597.99978112298</v>
+        <v>27597.99978112294</v>
       </c>
       <c r="D6" t="n">
         <v>27597.99978112296</v>
       </c>
       <c r="E6" t="n">
-        <v>61225.59978112297</v>
+        <v>61225.59978112299</v>
       </c>
       <c r="F6" t="n">
-        <v>61225.59978112301</v>
+        <v>61225.59978112298</v>
       </c>
       <c r="G6" t="n">
-        <v>61225.59978112298</v>
+        <v>40771.0889840725</v>
       </c>
       <c r="H6" t="n">
-        <v>41176.57311592356</v>
+        <v>66761.99597153884</v>
       </c>
       <c r="I6" t="n">
-        <v>-41735.03264501615</v>
+        <v>66761.9959715389</v>
       </c>
       <c r="J6" t="n">
-        <v>66761.99597153887</v>
+        <v>-53960.520971218</v>
       </c>
       <c r="K6" t="n">
+        <v>66761.99597153888</v>
+      </c>
+      <c r="L6" t="n">
         <v>66761.9959715389</v>
-      </c>
-      <c r="L6" t="n">
-        <v>66761.995971539</v>
       </c>
       <c r="M6" t="n">
         <v>66761.9959715389</v>
       </c>
       <c r="N6" t="n">
-        <v>66761.99597153897</v>
+        <v>66761.99597153893</v>
       </c>
       <c r="O6" t="n">
-        <v>66761.99597153894</v>
+        <v>43941.56523858829</v>
       </c>
       <c r="P6" t="n">
-        <v>61225.59978112301</v>
+        <v>66761.99597153891</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="I4" t="n">
-        <v>1017.627718875928</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603343</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>324.0137127175906</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>442.7574853255731</v>
+        <v>435.2356237478845</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34869,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>111.8210728160671</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M5" t="n">
-        <v>419.8550006816143</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9096973612262</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35109,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>104.4093672264672</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O8" t="n">
-        <v>419.8550006816143</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>352.3878357835378</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35346,7 +35348,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>293.5345574968697</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>442.7574853255731</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M12" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P12" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L14" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N14" t="n">
-        <v>443.4649875463285</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35823,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.69056852337247</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N17" t="n">
-        <v>443.4649875463285</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>435.2356237478842</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3999057603342</v>
+        <v>245.6677613624796</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,10 +36053,10 @@
         <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>364.842669417354</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
         <v>293.5345574968697</v>
@@ -36124,22 +36126,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>444.6058781505029</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>444.6058781505031</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127044</v>
       </c>
       <c r="K22" t="n">
         <v>228.8157587937749</v>
@@ -36358,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P23" t="n">
-        <v>499.5318695242352</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>809.3294837306471</v>
+        <v>440.0596680121644</v>
       </c>
       <c r="N24" t="n">
-        <v>1017.627718875928</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>162.8199733981322</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="L27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>73.06155854104185</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155941</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,13 +36922,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>437.0840165728146</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>444.6058781505029</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="O32" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O33" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
         <v>228.8157587937749</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P36" t="n">
-        <v>158.2737632597931</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
         <v>228.8157587937749</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="L38" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="L39" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M39" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P41" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L42" t="n">
-        <v>556.2278131155941</v>
+        <v>349.6900184701291</v>
       </c>
       <c r="M42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O42" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>442.7574853255731</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L45" t="n">
-        <v>435.2356237478844</v>
+        <v>444.6058781505031</v>
       </c>
       <c r="M45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
@@ -38187,13 +38189,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>340.6368316098421</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217096.9898191472</v>
+        <v>211484.0009075741</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19087887.38355839</v>
+        <v>19087887.38355838</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9612256.232354164</v>
+        <v>9612256.232354159</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>3.946226624324415</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>146.431074697486</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.0909459750582</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>236.2449788946802</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>272.9548798246049</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -904,10 +904,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>71.77132399094423</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>14.27821759595918</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.4183652254764</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.3192265349073</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>167.5694514298387</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>75.78440415150435</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1353,13 +1353,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>170.6830985149694</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1429,10 +1429,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>228.500275989532</v>
       </c>
       <c r="W11" t="n">
-        <v>248.2491686467715</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>68.83205621562998</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>163.7727216043779</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>209.7362531691279</v>
+        <v>106.9307107443053</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1785,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>65.7695357349571</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>137.0351064435681</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,22 +1846,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>76.54669146140627</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>58.67748875058447</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399333</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>33.46701689716789</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,10 +2061,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>97.081361093705</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>24.1295862066214</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2241,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>103.8121020651554</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>214.9734141664059</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>297.9489954478892</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>164.7047943182444</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>178.0332978264173</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>285.8735237895858</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>96.44420510686372</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>37.69026512957922</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>264.5256984474105</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2955,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3009,10 +3009,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>15.96946234244685</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>86.31361320310437</v>
+        <v>0.7980986261397651</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3192,10 +3192,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429393</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>58.33552926585337</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>200.6074308624497</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7374369868088</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.7757544134941</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12.96078451680977</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3565,7 +3565,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>62.73590713289502</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>92.01098438110735</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,25 +3742,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>24.1295862066214</v>
+        <v>16.58197834969941</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>110.1891282340261</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>132.7982881284981</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3963,10 +3963,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>242.5938981288117</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>82.38632349886963</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>106.7228969293686</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4194,7 +4194,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>4.250061189173884</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>758.0729918017917</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="C2" t="n">
-        <v>758.0729918017917</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="D2" t="n">
-        <v>334.7803709867919</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="E2" t="n">
-        <v>334.7803709867919</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F2" t="n">
-        <v>334.7803709867919</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L2" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M2" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N2" t="n">
-        <v>814.4714747539723</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O2" t="n">
         <v>1271.257381456703</v>
@@ -4360,22 +4360,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1841.613535542019</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U2" t="n">
-        <v>1583.258626138431</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1583.258626138431</v>
+        <v>1697.68944657923</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.258626138431</v>
+        <v>1697.68944657923</v>
       </c>
       <c r="X2" t="n">
-        <v>1583.258626138431</v>
+        <v>1697.68944657923</v>
       </c>
       <c r="Y2" t="n">
-        <v>1177.921356093322</v>
+        <v>1292.35217653412</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L3" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M3" t="n">
-        <v>475.2419029331443</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="N3" t="n">
-        <v>932.0278096358751</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1020.32454672534</v>
+        <v>446.6850350595429</v>
       </c>
       <c r="C4" t="n">
-        <v>848.3519836042556</v>
+        <v>446.6850350595429</v>
       </c>
       <c r="D4" t="n">
-        <v>685.0352107310263</v>
+        <v>446.6850350595429</v>
       </c>
       <c r="E4" t="n">
-        <v>518.8270048838798</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1734.89676095343</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4518,22 +4518,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.464575560472</v>
+        <v>1435.978771545261</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.464575560472</v>
+        <v>1435.978771545261</v>
       </c>
       <c r="V4" t="n">
-        <v>1675.464575560472</v>
+        <v>1154.26730415329</v>
       </c>
       <c r="W4" t="n">
-        <v>1675.464575560472</v>
+        <v>879.4149003258034</v>
       </c>
       <c r="X4" t="n">
-        <v>1436.833283747663</v>
+        <v>636.8510037716085</v>
       </c>
       <c r="Y4" t="n">
-        <v>1210.490515437405</v>
+        <v>636.8510037716085</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>887.1053432625264</v>
+        <v>1773.103336181797</v>
       </c>
       <c r="C5" t="n">
-        <v>460.2046132758265</v>
+        <v>1346.202606195097</v>
       </c>
       <c r="D5" t="n">
-        <v>36.91199246082673</v>
+        <v>922.9099853800977</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082673</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>475.2419029331443</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L5" t="n">
-        <v>932.0278096358751</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M5" t="n">
-        <v>1388.813716338606</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N5" t="n">
-        <v>1388.813716338606</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O5" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T5" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U5" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V5" t="n">
-        <v>1162.81734308536</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>1162.81734308536</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>1162.81734308536</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1162.81734308536</v>
+        <v>1773.103336181797</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K6" t="n">
+        <v>316.0561247023296</v>
+      </c>
+      <c r="L6" t="n">
+        <v>316.0561247023296</v>
+      </c>
+      <c r="M6" t="n">
+        <v>316.0561247023296</v>
+      </c>
+      <c r="N6" t="n">
         <v>772.8420314050604</v>
       </c>
-      <c r="L6" t="n">
-        <v>1229.627938107791</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1229.627938107791</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1686.413844810522</v>
-      </c>
       <c r="O6" t="n">
-        <v>1686.413844810522</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956633</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4676,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4685,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="7">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1020.32454672534</v>
+        <v>372.20132845514</v>
       </c>
       <c r="C7" t="n">
-        <v>848.3519836042556</v>
+        <v>200.228765334056</v>
       </c>
       <c r="D7" t="n">
-        <v>685.0352107310263</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E7" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F7" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082673</v>
+        <v>78.10605253212941</v>
       </c>
       <c r="K7" t="n">
-        <v>263.4395936666639</v>
+        <v>304.6336537379666</v>
       </c>
       <c r="L7" t="n">
-        <v>618.1289149610848</v>
+        <v>659.3229750323874</v>
       </c>
       <c r="M7" t="n">
-        <v>1009.314709931336</v>
+        <v>1050.508770002638</v>
       </c>
       <c r="N7" t="n">
-        <v>1386.806220807371</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O7" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4752,25 +4752,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786371</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U7" t="n">
-        <v>1432.125227786371</v>
+        <v>1587.837833251117</v>
       </c>
       <c r="V7" t="n">
-        <v>1432.125227786371</v>
+        <v>1306.126365859145</v>
       </c>
       <c r="W7" t="n">
-        <v>1432.125227786371</v>
+        <v>1031.273962031658</v>
       </c>
       <c r="X7" t="n">
-        <v>1432.125227786371</v>
+        <v>788.7100654774636</v>
       </c>
       <c r="Y7" t="n">
-        <v>1210.490515437405</v>
+        <v>562.3672971672056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1738.206464925269</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="C8" t="n">
-        <v>1311.305734938569</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="D8" t="n">
-        <v>888.013114123569</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E8" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L8" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M8" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N8" t="n">
-        <v>950.4838058662883</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O8" t="n">
-        <v>950.4838058662883</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P8" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4834,22 +4834,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1676.337550889985</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1676.337550889985</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1676.337550889985</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1279.946201190332</v>
       </c>
       <c r="X8" t="n">
-        <v>1845.599623041337</v>
+        <v>868.2262023580788</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.599623041337</v>
+        <v>462.8889323129692</v>
       </c>
     </row>
     <row r="9">
@@ -4865,43 +4865,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>501.1445421254694</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L9" t="n">
-        <v>957.9304488282003</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M9" t="n">
-        <v>1306.794406253903</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N9" t="n">
-        <v>1306.794406253903</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253903</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q9" t="n">
         <v>1763.580312956633</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>595.3769080672175</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C10" t="n">
-        <v>595.3769080672175</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D10" t="n">
-        <v>595.3769080672175</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E10" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K10" t="n">
         <v>263.4395936666639</v>
@@ -4977,7 +4977,7 @@
         <v>1386.806220807371</v>
       </c>
       <c r="O10" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P10" t="n">
         <v>1845.599623041337</v>
@@ -4989,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1432.125227786371</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.940779286676</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V10" t="n">
-        <v>870.2293118947046</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W10" t="n">
-        <v>595.3769080672175</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X10" t="n">
-        <v>595.3769080672175</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y10" t="n">
-        <v>595.3769080672175</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>758.0729918017917</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="C11" t="n">
-        <v>758.0729918017917</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D11" t="n">
-        <v>334.7803709867919</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E11" t="n">
-        <v>334.7803709867919</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F11" t="n">
-        <v>334.7803709867919</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G11" t="n">
         <v>334.7803709867919</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L11" t="n">
-        <v>475.2419029331443</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="M11" t="n">
-        <v>932.0278096358751</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N11" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O11" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P11" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
@@ -5077,16 +5077,16 @@
         <v>1366.319142682382</v>
       </c>
       <c r="V11" t="n">
-        <v>1008.829727808632</v>
+        <v>1135.510783096996</v>
       </c>
       <c r="W11" t="n">
-        <v>758.0729918017917</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="X11" t="n">
-        <v>758.0729918017917</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="Y11" t="n">
-        <v>758.0729918017917</v>
+        <v>739.1194333973433</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C12" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K12" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L12" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M12" t="n">
-        <v>932.0278096358751</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N12" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O12" t="n">
-        <v>1845.599623041337</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P12" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R12" t="n">
         <v>1845.599623041337</v>
@@ -5150,7 +5150,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U12" t="n">
         <v>1437.627243819906</v>
@@ -5159,13 +5159,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.4393219715641</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C13" t="n">
-        <v>36.91199246082673</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D13" t="n">
-        <v>36.91199246082673</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E13" t="n">
-        <v>36.91199246082673</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F13" t="n">
-        <v>36.91199246082673</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082673</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K13" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L13" t="n">
-        <v>430.8949765933859</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M13" t="n">
-        <v>822.0807715636367</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N13" t="n">
-        <v>1199.572282439673</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119436</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
@@ -5229,22 +5229,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T13" t="n">
-        <v>1602.260275267236</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U13" t="n">
-        <v>1322.075826767541</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="V13" t="n">
-        <v>1040.36435937557</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="W13" t="n">
-        <v>765.5119555480826</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="X13" t="n">
-        <v>522.9480589938877</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y13" t="n">
-        <v>296.6052906836297</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>758.0729918017917</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="C14" t="n">
-        <v>758.0729918017917</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="D14" t="n">
-        <v>334.7803709867919</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E14" t="n">
-        <v>334.7803709867919</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F14" t="n">
-        <v>334.7803709867919</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G14" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>493.6978991635576</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="L14" t="n">
-        <v>950.4838058662883</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M14" t="n">
-        <v>1407.269712569019</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N14" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O14" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
@@ -5314,16 +5314,16 @@
         <v>1366.319142682382</v>
       </c>
       <c r="V14" t="n">
-        <v>1154.464341501445</v>
+        <v>1258.308323748741</v>
       </c>
       <c r="W14" t="n">
-        <v>758.0729918017917</v>
+        <v>1258.308323748741</v>
       </c>
       <c r="X14" t="n">
-        <v>758.0729918017917</v>
+        <v>846.5883249164879</v>
       </c>
       <c r="Y14" t="n">
-        <v>758.0729918017917</v>
+        <v>441.2510548713781</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L15" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M15" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N15" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O15" t="n">
-        <v>950.4838058662883</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P15" t="n">
-        <v>1407.269712569019</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.093114985063</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C16" t="n">
-        <v>948.1205518639796</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D16" t="n">
-        <v>784.8037789907503</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E16" t="n">
-        <v>618.5955731436038</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F16" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G16" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U16" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V16" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="W16" t="n">
-        <v>1779.165748561582</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="X16" t="n">
-        <v>1536.601852007387</v>
+        <v>1246.667315035598</v>
       </c>
       <c r="Y16" t="n">
-        <v>1310.259083697129</v>
+        <v>1020.32454672534</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1745.792697513689</v>
+        <v>419.6864939402695</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.891967526989</v>
+        <v>419.6864939402695</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>419.6864939402695</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>419.6864939402695</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924752</v>
+        <v>419.6864939402695</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336854</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M17" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N17" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462376</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X17" t="n">
-        <v>2224.911252462376</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="Y17" t="n">
-        <v>2165.64106180522</v>
+        <v>839.5348582317996</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>983.3471129133208</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C18" t="n">
-        <v>865.8412094308255</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>762.0012509461105</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E18" t="n">
-        <v>657.2993172190478</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>563.653486901952</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>469.599715119556</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>416.2236218818656</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>416.2236218818656</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>416.2236218818656</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>659.4347056307204</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.100240615158</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N18" t="n">
-        <v>1760.765775599596</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.765775599596</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.765775599596</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q18" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R18" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S18" t="n">
-        <v>2143.58700502363</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T18" t="n">
-        <v>2001.707069321308</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U18" t="n">
-        <v>1816.938873240945</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V18" t="n">
-        <v>1611.965734380211</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W18" t="n">
-        <v>1415.444357213428</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X18" t="n">
-        <v>1251.967010980091</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y18" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>961.4711417263379</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C19" t="n">
-        <v>789.4985786052539</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D19" t="n">
-        <v>626.1818057320246</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="E19" t="n">
-        <v>626.1818057320246</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5688,37 +5688,37 @@
         <v>1451.88378161995</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S19" t="n">
-        <v>2144.067571576652</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T19" t="n">
-        <v>1900.728223802552</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U19" t="n">
-        <v>1620.543775302856</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V19" t="n">
-        <v>1620.543775302856</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W19" t="n">
-        <v>1620.543775302856</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X19" t="n">
-        <v>1377.979878748662</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y19" t="n">
-        <v>1151.637110438404</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1780.689568770218</v>
+        <v>844.7676468884964</v>
       </c>
       <c r="C20" t="n">
-        <v>1353.788838783518</v>
+        <v>844.7676468884964</v>
       </c>
       <c r="D20" t="n">
-        <v>930.4962179685185</v>
+        <v>844.7676468884964</v>
       </c>
       <c r="E20" t="n">
-        <v>504.5192781163761</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F20" t="n">
-        <v>79.39509630577631</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G20" t="n">
-        <v>79.39509630577631</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H20" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K20" t="n">
-        <v>407.101683866143</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L20" t="n">
-        <v>407.101683866143</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M20" t="n">
-        <v>407.101683866143</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N20" t="n">
-        <v>549.9383681074139</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O20" t="n">
-        <v>1100.603903091852</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P20" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462376</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462376</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="X20" t="n">
-        <v>2224.911252462376</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="Y20" t="n">
-        <v>2200.537933061748</v>
+        <v>844.7676468884964</v>
       </c>
     </row>
     <row r="21">
@@ -5813,40 +5813,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M21" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N21" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O21" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P21" t="n">
         <v>1307.021068682275</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>315.615903911738</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C22" t="n">
-        <v>315.615903911738</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D22" t="n">
-        <v>315.615903911738</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E22" t="n">
-        <v>315.615903911738</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
-        <v>315.615903911738</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>149.3589342059702</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
         <v>1074.392270743914</v>
@@ -5937,25 +5937,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T22" t="n">
-        <v>1811.43685720741</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U22" t="n">
-        <v>1531.252408707715</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V22" t="n">
-        <v>1249.540941315744</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W22" t="n">
-        <v>974.6885374882565</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X22" t="n">
-        <v>732.1246409340616</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y22" t="n">
-        <v>505.7818726238037</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1082.561118502787</v>
+        <v>982.8040871845618</v>
       </c>
       <c r="C23" t="n">
-        <v>1082.561118502787</v>
+        <v>765.6592243902124</v>
       </c>
       <c r="D23" t="n">
-        <v>1082.561118502787</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E23" t="n">
-        <v>1082.561118502787</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F23" t="n">
-        <v>781.6025372422928</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G23" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H23" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L23" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M23" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N23" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O23" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P23" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q23" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T23" t="n">
-        <v>1899.618387380149</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U23" t="n">
-        <v>1899.618387380149</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V23" t="n">
-        <v>1899.618387380149</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W23" t="n">
-        <v>1899.618387380149</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X23" t="n">
-        <v>1487.898388547897</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="Y23" t="n">
-        <v>1082.561118502787</v>
+        <v>982.8040871845618</v>
       </c>
     </row>
     <row r="24">
@@ -6050,46 +6050,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>316.1957143288386</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L24" t="n">
-        <v>316.1957143288386</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M24" t="n">
-        <v>751.8547856608814</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N24" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O24" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
         <v>1853.185855629757</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C25" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D25" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E25" t="n">
-        <v>626.1818057320246</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6183,16 +6183,16 @@
         <v>1484.213795394888</v>
       </c>
       <c r="V25" t="n">
-        <v>1317.84531628555</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W25" t="n">
-        <v>1317.84531628555</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X25" t="n">
-        <v>1317.84531628555</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y25" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1299.938409122541</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="C26" t="n">
-        <v>1299.938409122541</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="D26" t="n">
-        <v>1299.938409122541</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E26" t="n">
-        <v>873.9614692703988</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F26" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K26" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L26" t="n">
-        <v>957.767218850581</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M26" t="n">
-        <v>1100.603903091852</v>
+        <v>572.914647509062</v>
       </c>
       <c r="N26" t="n">
-        <v>1651.26943807629</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O26" t="n">
-        <v>1651.26943807629</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P26" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>1899.618387380149</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U26" t="n">
-        <v>1719.786773414071</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V26" t="n">
-        <v>1719.786773414071</v>
+        <v>1677.795207917793</v>
       </c>
       <c r="W26" t="n">
-        <v>1719.786773414071</v>
+        <v>1281.40385821814</v>
       </c>
       <c r="X26" t="n">
-        <v>1719.786773414071</v>
+        <v>869.6838593858872</v>
       </c>
       <c r="Y26" t="n">
-        <v>1719.786773414071</v>
+        <v>464.3465893407776</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>316.1957143288386</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K27" t="n">
-        <v>838.37484378254</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L27" t="n">
-        <v>838.37484378254</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M27" t="n">
-        <v>838.37484378254</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N27" t="n">
-        <v>838.37484378254</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O27" t="n">
-        <v>838.37484378254</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P27" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q27" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>485.7509513926031</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C28" t="n">
-        <v>313.7783882715191</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D28" t="n">
-        <v>313.7783882715191</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E28" t="n">
         <v>216.3599992746871</v>
       </c>
       <c r="F28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6411,25 +6411,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T28" t="n">
-        <v>1981.571904688275</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U28" t="n">
-        <v>1701.38745618858</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V28" t="n">
-        <v>1419.675988796609</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.823584969122</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X28" t="n">
-        <v>902.2596884149267</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.9169201046687</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>471.3989550359474</v>
+        <v>807.3383084402755</v>
       </c>
       <c r="C29" t="n">
-        <v>44.49822504924752</v>
+        <v>380.4375784535756</v>
       </c>
       <c r="D29" t="n">
-        <v>44.49822504924752</v>
+        <v>380.4375784535756</v>
       </c>
       <c r="E29" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L29" t="n">
-        <v>455.358312627159</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M29" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N29" t="n">
-        <v>1556.689382596035</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O29" t="n">
-        <v>1556.689382596035</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P29" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U29" t="n">
-        <v>1966.556343058788</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V29" t="n">
-        <v>1699.358667859383</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W29" t="n">
-        <v>1302.96731815973</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X29" t="n">
-        <v>891.2473193274775</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="Y29" t="n">
-        <v>891.2473193274775</v>
+        <v>807.3383084402755</v>
       </c>
     </row>
     <row r="30">
@@ -6524,40 +6524,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>51.94486801115936</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J30" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K30" t="n">
-        <v>874.3078922751884</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L30" t="n">
-        <v>874.3078922751884</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M30" t="n">
-        <v>874.3078922751884</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.021068682275</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O30" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P30" t="n">
         <v>1307.021068682275</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>856.0490050883208</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C31" t="n">
-        <v>684.0764419672367</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D31" t="n">
-        <v>520.7596690940074</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E31" t="n">
-        <v>354.551463246861</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6648,25 +6648,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T31" t="n">
-        <v>1811.43685720741</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U31" t="n">
-        <v>1531.252408707715</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V31" t="n">
-        <v>1515.121638664839</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W31" t="n">
-        <v>1515.121638664839</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.557742110644</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y31" t="n">
-        <v>1046.214973800386</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.668515703089</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C32" t="n">
-        <v>893.7677857163897</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D32" t="n">
-        <v>470.47516490139</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E32" t="n">
-        <v>44.49822504924752</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924752</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
         <v>407.101683866143</v>
@@ -6712,40 +6712,40 @@
         <v>407.101683866143</v>
       </c>
       <c r="N32" t="n">
-        <v>549.9383681074139</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O32" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P32" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V32" t="n">
-        <v>2137.725784580452</v>
+        <v>2003.179521278586</v>
       </c>
       <c r="W32" t="n">
-        <v>2137.725784580452</v>
+        <v>1606.788171578933</v>
       </c>
       <c r="X32" t="n">
-        <v>1726.005785748199</v>
+        <v>1606.788171578933</v>
       </c>
       <c r="Y32" t="n">
-        <v>1320.668515703089</v>
+        <v>1201.450901533823</v>
       </c>
     </row>
     <row r="33">
@@ -6761,37 +6761,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>595.1637600336854</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M33" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N33" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O33" t="n">
         <v>1853.185855629757</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.5772905989112</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="C34" t="n">
-        <v>96.60472747782725</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49822504924752</v>
+        <v>103.4230020854631</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6885,25 +6885,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S34" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U34" t="n">
-        <v>1484.213795394888</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V34" t="n">
-        <v>1202.502328002917</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W34" t="n">
-        <v>927.6499241754298</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X34" t="n">
-        <v>685.0860276212348</v>
+        <v>855.2210751020999</v>
       </c>
       <c r="Y34" t="n">
-        <v>458.7432593109769</v>
+        <v>628.878306791842</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>746.7056659857641</v>
+        <v>968.2929929381414</v>
       </c>
       <c r="C35" t="n">
-        <v>746.7056659857641</v>
+        <v>968.2929929381414</v>
       </c>
       <c r="D35" t="n">
-        <v>746.7056659857641</v>
+        <v>545.0003721231417</v>
       </c>
       <c r="E35" t="n">
-        <v>746.7056659857641</v>
+        <v>545.0003721231417</v>
       </c>
       <c r="F35" t="n">
-        <v>746.7056659857641</v>
+        <v>545.0003721231417</v>
       </c>
       <c r="G35" t="n">
         <v>342.3666035752127</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
         <v>407.101683866143</v>
@@ -6943,34 +6943,34 @@
         <v>407.101683866143</v>
       </c>
       <c r="L35" t="n">
-        <v>957.767218850581</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M35" t="n">
-        <v>957.767218850581</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="N35" t="n">
-        <v>957.767218850581</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O35" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P35" t="n">
-        <v>1651.26943807629</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T35" t="n">
-        <v>2003.985681507009</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U35" t="n">
-        <v>1745.630772103421</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V35" t="n">
         <v>1388.141357229671</v>
@@ -6979,10 +6979,10 @@
         <v>1388.141357229671</v>
       </c>
       <c r="X35" t="n">
-        <v>1152.042936030874</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="Y35" t="n">
-        <v>746.7056659857641</v>
+        <v>1388.141357229671</v>
       </c>
     </row>
     <row r="36">
@@ -6998,46 +6998,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924752</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L36" t="n">
-        <v>44.49822504924752</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M36" t="n">
-        <v>595.1637600336854</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N36" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O36" t="n">
-        <v>1696.494830002561</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524004</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7119,28 +7119,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T37" t="n">
-        <v>1786.751981150003</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U37" t="n">
-        <v>1786.751981150003</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V37" t="n">
-        <v>1786.751981150003</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W37" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y37" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1595.975226652906</v>
+        <v>800.5560956467413</v>
       </c>
       <c r="C38" t="n">
-        <v>1595.975226652906</v>
+        <v>800.5560956467413</v>
       </c>
       <c r="D38" t="n">
-        <v>1172.682605837907</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E38" t="n">
-        <v>746.7056659857641</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F38" t="n">
-        <v>746.7056659857641</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G38" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>549.9383681074139</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L38" t="n">
-        <v>549.9383681074139</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M38" t="n">
-        <v>549.9383681074139</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N38" t="n">
-        <v>549.9383681074139</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O38" t="n">
-        <v>1100.603903091852</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.26943807629</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U38" t="n">
-        <v>1966.556343058788</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V38" t="n">
-        <v>1609.066928185037</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W38" t="n">
-        <v>1609.066928185037</v>
+        <v>1220.404459938271</v>
       </c>
       <c r="X38" t="n">
-        <v>1609.066928185037</v>
+        <v>1220.404459938271</v>
       </c>
       <c r="Y38" t="n">
-        <v>1609.066928185037</v>
+        <v>1220.404459938271</v>
       </c>
     </row>
     <row r="39">
@@ -7235,31 +7235,31 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>201.1892506764434</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>751.8547856608814</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M39" t="n">
         <v>1302.520320645319</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1027.91077931376</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C40" t="n">
-        <v>855.9382161926764</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D40" t="n">
-        <v>692.6214433194471</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E40" t="n">
-        <v>526.4132374723006</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F40" t="n">
-        <v>354.551463246861</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="G40" t="n">
-        <v>188.2944935410931</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="H40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7359,25 +7359,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>2054.776204981511</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U40" t="n">
-        <v>2054.776204981511</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V40" t="n">
-        <v>1961.835816717766</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W40" t="n">
-        <v>1686.983412890279</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X40" t="n">
-        <v>1444.419516336084</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y40" t="n">
-        <v>1218.076748025826</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1780.689568770218</v>
+        <v>765.6592243902124</v>
       </c>
       <c r="C41" t="n">
-        <v>1353.788838783518</v>
+        <v>765.6592243902124</v>
       </c>
       <c r="D41" t="n">
-        <v>930.4962179685185</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E41" t="n">
-        <v>504.5192781163761</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F41" t="n">
-        <v>79.39509630577631</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G41" t="n">
-        <v>79.39509630577631</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H41" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L41" t="n">
-        <v>572.9146475090618</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M41" t="n">
-        <v>1123.5801824935</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N41" t="n">
-        <v>1674.245717477938</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O41" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W41" t="n">
-        <v>2224.911252462376</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="X41" t="n">
-        <v>2200.537933061748</v>
+        <v>1590.844858726852</v>
       </c>
       <c r="Y41" t="n">
-        <v>2200.537933061748</v>
+        <v>1185.507588681743</v>
       </c>
     </row>
     <row r="42">
@@ -7472,43 +7472,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>51.94486801115936</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J42" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K42" t="n">
-        <v>874.3078922751884</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L42" t="n">
-        <v>1220.501010560616</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M42" t="n">
-        <v>1220.501010560616</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.166545545054</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O42" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P42" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q42" t="n">
         <v>1771.166545545054</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>737.4839554633641</v>
+        <v>351.6112664143225</v>
       </c>
       <c r="C43" t="n">
-        <v>737.4839554633641</v>
+        <v>351.6112664143225</v>
       </c>
       <c r="D43" t="n">
-        <v>737.4839554633641</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7593,28 +7593,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2007.737591668684</v>
+        <v>2090.771567484095</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.398243894584</v>
+        <v>1847.432219709995</v>
       </c>
       <c r="U43" t="n">
-        <v>1484.213795394888</v>
+        <v>1567.247771210299</v>
       </c>
       <c r="V43" t="n">
-        <v>1202.502328002917</v>
+        <v>1285.536303818328</v>
       </c>
       <c r="W43" t="n">
-        <v>927.6499241754298</v>
+        <v>1010.683899990841</v>
       </c>
       <c r="X43" t="n">
-        <v>927.6499241754298</v>
+        <v>768.1200034366461</v>
       </c>
       <c r="Y43" t="n">
-        <v>927.6499241754298</v>
+        <v>541.7772351263882</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>804.1642048184415</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="C44" t="n">
-        <v>377.2634748317415</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="D44" t="n">
-        <v>377.2634748317415</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="E44" t="n">
-        <v>377.2634748317415</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="F44" t="n">
-        <v>377.2634748317415</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G44" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H44" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K44" t="n">
-        <v>595.1637600336855</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L44" t="n">
-        <v>1100.603903091852</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M44" t="n">
-        <v>1100.603903091852</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N44" t="n">
-        <v>1100.603903091852</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O44" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P44" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976562</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V44" t="n">
-        <v>1283.774063102811</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W44" t="n">
-        <v>887.3827134031583</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X44" t="n">
-        <v>804.1642048184415</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y44" t="n">
-        <v>804.1642048184415</v>
+        <v>991.7500075300184</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>1307.021068682275</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.021068682275</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.021068682275</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O45" t="n">
-        <v>1307.021068682275</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P45" t="n">
         <v>1307.021068682275</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>545.9957668907073</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C46" t="n">
-        <v>374.0232037696233</v>
+        <v>207.8149979224768</v>
       </c>
       <c r="D46" t="n">
-        <v>210.7064308963939</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E46" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F46" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
@@ -7815,7 +7815,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
         <v>1451.88378161995</v>
@@ -7830,28 +7830,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U46" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V46" t="n">
-        <v>1479.920804294713</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W46" t="n">
-        <v>1205.068400467226</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X46" t="n">
-        <v>962.5045039130309</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y46" t="n">
-        <v>736.161735602773</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7990,13 +7990,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>361.2933355520366</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163582</v>
+        <v>456.538457816883</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8057,7 +8057,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,22 +8066,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>458.3324042602125</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738758</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>136.4406355808522</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>478.5220861203826</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738758</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P6" t="n">
-        <v>99.7167686251434</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>62.24691767208638</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8388,13 +8388,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P8" t="n">
-        <v>362.2965767485775</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,25 +8531,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>375.4846162958658</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
         <v>484.1469440493127</v>
@@ -8625,10 +8625,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>381.5174992961649</v>
+        <v>192.3923090257622</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>24.61956276478495</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L11" t="n">
-        <v>481.0695277581962</v>
+        <v>458.1670431142373</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L12" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>465.8542658379013</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608414</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>64.31013128815742</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>497.1645065551435</v>
+        <v>454.9120992556681</v>
       </c>
       <c r="L14" t="n">
-        <v>499.7119481929571</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>480.0371081600191</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9017,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q15" t="n">
-        <v>465.5045236145516</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>400.5044494188121</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9105,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>594.5398555482168</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>571.1449214366444</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
-        <v>268.1828480767091</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9336,7 +9336,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>181.5591018660328</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P20" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9497,7 +9497,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>466.3767193553318</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>38.31204243262292</v>
@@ -9649,19 +9649,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>593.50743595004</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O23" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P23" t="n">
-        <v>571.3293238908516</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>463.1564485244924</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>181.7107419310186</v>
+        <v>571.1852249800525</v>
       </c>
       <c r="N26" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>175.9092261537768</v>
       </c>
       <c r="K27" t="n">
-        <v>549.8528999481832</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9968,16 +9968,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P27" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,25 +10117,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>453.3222319052608</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>593.50743595004</v>
+        <v>110.3411813754879</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10202,13 +10202,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>458.4270447863562</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10360,13 +10360,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>181.5591018660328</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P32" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10424,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298235</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O33" t="n">
-        <v>181.445652982016</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10591,22 +10591,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P35" t="n">
-        <v>181.854840841818</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>180.0446044646224</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,25 +10825,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>180.0440798263961</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>180.6729970931272</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>578.7428998298235</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>572.0660045132433</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N41" t="n">
-        <v>593.50743595004</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
@@ -11083,7 +11083,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>372.2051051843586</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>185.9167539104601</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11299,22 +11299,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>548.8576414812762</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>467.1209648647327</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22600,13 +22600,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>214.7700886214888</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>207.483446027527</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>3.815008321300809</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>3.893278693972718</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142.6950008240098</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,10 +22792,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22804,7 +22804,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -22852,7 +22852,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>329.5125733537143</v>
       </c>
     </row>
     <row r="6">
@@ -22950,16 +22950,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22992,25 +22992,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>263.1043864187396</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.66097540167894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>309.3306541137075</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23074,7 +23074,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>51.14686381597451</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -23083,13 +23083,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>88.76171963717063</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23229,7 +23229,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -23272,7 +23272,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>125.414244735481</v>
       </c>
       <c r="W11" t="n">
-        <v>144.1782675558851</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>101.4207812742432</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>113.6098824103208</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23509,10 +23509,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>144.1782675558851</v>
+        <v>246.9838099807077</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -23715,10 +23715,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>206.334344054255</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>103.1031511450849</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>323.7489803250396</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.6064085940741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.98949189919185</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>134.9666801088886</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>324.635809359916</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>377.1543111380371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>38.54620374177172</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24208,25 +24208,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>207.658308520427</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>122.9239445446045</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>118.5577190788913</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>114.1895583998069</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,13 +24451,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>77.73806248313454</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>68.04099693542724</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,7 +24609,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>68.10191868181126</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>384.0269053240418</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -24697,7 +24697,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>89.38882227760251</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>262.9248903756045</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>267.6009075219087</v>
+        <v>353.1164220988732</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>106.2105945228216</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25168,7 +25168,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>199.6882409239961</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>173.8653618571214</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>22.1301998828649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>402.6890961318049</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>329.6915290697615</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>45.91410070006346</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>186.883368336944</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -25690,13 +25690,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>383.4732126373088</v>
+        <v>391.0208204942308</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>54.35699555464892</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>35.6354088775584</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25876,16 +25876,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>178.279041863682</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>325.2164753450606</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.52994056050457</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>274.6442915288775</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>436543.9762967546</v>
+        <v>436543.9762967548</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>436543.9762967546</v>
+        <v>436543.9762967548</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>436543.9762967546</v>
+        <v>436543.9762967547</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436543.9762967547</v>
+        <v>436543.9762967546</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436543.9762967547</v>
+        <v>436543.9762967546</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>491903.5700175385</v>
+        <v>491903.5700175387</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>491903.5700175385</v>
+        <v>491903.5700175387</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>491903.5700175385</v>
+        <v>491903.5700175386</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491903.5700175385</v>
+        <v>491903.5700175386</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491903.5700175385</v>
+        <v>491903.5700175386</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>491903.5700175385</v>
+        <v>491903.5700175386</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491903.5700175385</v>
+        <v>491903.5700175386</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>491903.5700175385</v>
+        <v>491903.5700175386</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491903.5700175385</v>
+        <v>491903.5700175387</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>491903.5700175386</v>
+        <v>491903.5700175387</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>120279.4957658232</v>
       </c>
       <c r="C2" t="n">
+        <v>120279.4957658233</v>
+      </c>
+      <c r="D2" t="n">
+        <v>120279.4957658233</v>
+      </c>
+      <c r="E2" t="n">
         <v>120279.4957658232</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>120279.4957658232</v>
-      </c>
-      <c r="E2" t="n">
-        <v>120279.4957658233</v>
-      </c>
-      <c r="F2" t="n">
-        <v>120279.4957658233</v>
       </c>
       <c r="G2" t="n">
         <v>135529.7532061195</v>
       </c>
       <c r="H2" t="n">
-        <v>135529.7532061194</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="I2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="J2" t="n">
         <v>135529.7532061195</v>
       </c>
       <c r="K2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="L2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="M2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="N2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="O2" t="n">
         <v>135529.7532061195</v>
       </c>
       <c r="P2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25990.90698746637</v>
+        <v>25990.90698746642</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22820.43073295062</v>
+        <v>22820.43073295066</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>31000.78171447197</v>
       </c>
       <c r="E4" t="n">
-        <v>31000.78171447197</v>
+        <v>31000.78171447198</v>
       </c>
       <c r="F4" t="n">
         <v>31000.78171447197</v>
       </c>
       <c r="G4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="H4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="I4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="J4" t="n">
-        <v>34949.10619715248</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="K4" t="n">
-        <v>34949.10619715248</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="L4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.10619715251</v>
       </c>
       <c r="M4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="N4" t="n">
         <v>34949.10619715249</v>
@@ -26459,7 +26459,7 @@
         <v>34949.10619715249</v>
       </c>
       <c r="P4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.10619715251</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127027.7208369975</v>
+        <v>-127732.080658489</v>
       </c>
       <c r="C6" t="n">
-        <v>27597.99978112294</v>
+        <v>26893.63995963149</v>
       </c>
       <c r="D6" t="n">
-        <v>27597.99978112296</v>
+        <v>26893.63995963146</v>
       </c>
       <c r="E6" t="n">
-        <v>61225.59978112299</v>
+        <v>60521.23995963143</v>
       </c>
       <c r="F6" t="n">
-        <v>61225.59978112298</v>
+        <v>60521.23995963144</v>
       </c>
       <c r="G6" t="n">
-        <v>40771.0889840725</v>
+        <v>40162.04327158284</v>
       </c>
       <c r="H6" t="n">
-        <v>66761.99597153884</v>
+        <v>66152.95025904925</v>
       </c>
       <c r="I6" t="n">
-        <v>66761.9959715389</v>
+        <v>66152.95025904928</v>
       </c>
       <c r="J6" t="n">
-        <v>-53960.520971218</v>
+        <v>-54569.56668370765</v>
       </c>
       <c r="K6" t="n">
-        <v>66761.99597153888</v>
+        <v>66152.95025904928</v>
       </c>
       <c r="L6" t="n">
-        <v>66761.9959715389</v>
+        <v>66152.95025904926</v>
       </c>
       <c r="M6" t="n">
-        <v>66761.9959715389</v>
+        <v>66152.95025904928</v>
       </c>
       <c r="N6" t="n">
-        <v>66761.99597153893</v>
+        <v>66152.95025904931</v>
       </c>
       <c r="O6" t="n">
-        <v>43941.56523858829</v>
+        <v>43332.51952609856</v>
       </c>
       <c r="P6" t="n">
-        <v>66761.99597153891</v>
+        <v>66152.95025904926</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>324.0137127175906</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603341</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>435.2356237478845</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>111.8210728160673</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>442.7574853255733</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P6" t="n">
-        <v>77.94592742031473</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.61016168818452</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35108,13 +35108,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603341</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P8" t="n">
-        <v>324.7212149383462</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>352.3878357835378</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35345,10 +35345,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>359.0183117977405</v>
+        <v>169.8931215273378</v>
       </c>
       <c r="P10" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L11" t="n">
-        <v>442.7574853255733</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35588,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.69056852337247</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>461.3999057603341</v>
+        <v>419.1474984608587</v>
       </c>
       <c r="L14" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q15" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>377.9290095273263</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35825,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
-        <v>245.6677613624796</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36056,7 +36056,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P19" t="n">
         <v>293.5345574968697</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P20" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>444.6058781505031</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
         <v>228.8157587937749</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36369,19 +36369,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O23" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P23" t="n">
-        <v>533.7539620806203</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>440.0596680121644</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>144.2794790315867</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="K27" t="n">
-        <v>527.4536661148499</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P27" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155939</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>437.0840165728146</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -37080,13 +37080,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>144.2794790315867</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O32" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P32" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O33" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,22 +37311,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O35" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P35" t="n">
-        <v>144.2794790315867</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>144.2794790315867</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>158.2737632597938</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>533.7539620806205</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155939</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O41" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>349.6900184701291</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>510.5455990486533</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P44" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>444.6058781505031</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
